--- a/02 封装制作及命名规则/02_封装库索引.xlsx
+++ b/02 封装制作及命名规则/02_封装库索引.xlsx
@@ -14,11 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>FBGA396-0r65mm-23_23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>A64</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -28,10 +24,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>FBGA96-0r8mm-16_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>K4B4G1646D</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -52,11 +44,171 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>PMU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPGA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EP4CE6E22C8N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HT82V48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD313</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒流源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPCS16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOIC8-1r27mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI NOR Flash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R/C0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R/C0603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R/C0805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R/C1206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FBGA396-0r65mm-23_23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FBGA96-0r8mm-16_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSSOP16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQFP48-0r5mm-0707</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>QFN68-0r4mm-0808LH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>QFP144-0r5mm-2222L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC3216A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC3528B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电阻电容 0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电阻电容 0603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电阻电容 0805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电阻电容 1206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钽电容 A型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钽电容 B型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：mil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMS1117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>PMU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI2306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-Channel MOSFET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S6R1008V1A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSOP32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片LED 0805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0805</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -107,10 +259,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -416,77 +571,283 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="40.88671875" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="40.88671875" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>25</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:D8">
+    <sortCondition ref="A2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/02 封装制作及命名规则/02_封装库索引.xlsx
+++ b/02 封装制作及命名规则/02_封装库索引.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>A64</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -80,135 +80,169 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>SPI NOR Flash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R/C0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R/C0603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R/C0805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R/C1206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FBGA396-0r65mm-23_23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FBGA96-0r8mm-16_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSSOP16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QFN68-0r4mm-0808LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QFP144-0r5mm-2222L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC3216A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC3528B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电阻电容 0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电阻电容 0603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电阻电容 0805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电阻电容 1206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钽电容 A型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钽电容 B型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：mil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMS1117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI2306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-Channel MOSFET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S6R1008V1A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSOP32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片LED 0805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">贴片功率电感 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SOIC8-1r27mm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SPI NOR Flash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R/C0402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R/C0603</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R/C0805</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R/C1206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FBGA396-0r65mm-23_23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FBGA96-0r8mm-16_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TSSOP16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LQFP48-0r5mm-0707</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QFN68-0r4mm-0808LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QFP144-0r5mm-2222L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC3216A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC3528B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电阻电容 0402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电阻电容 0603</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电阻电容 0805</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电阻电容 1206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钽电容 A型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钽电容 B型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位：mil</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位：mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AMS1117</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOT223</t>
+    <t>KLM8G1WEPD-B031</t>
+  </si>
+  <si>
+    <t>EMMC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FBGA153-0r5mm-14_14</t>
+  </si>
+  <si>
+    <t>FC-135, Y3225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶振</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QFP48-0r5mm-0707</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2520, L4D18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP1482DS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PMU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SI2306</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOT23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N-Channel MOSFET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S6R1008V1A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TSOP32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SRAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴片LED 0805</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D0805</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -571,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -605,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
@@ -619,230 +653,279 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>21</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>22</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>37</v>
-      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>26</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>27</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:D8">

--- a/02 封装制作及命名规则/02_封装库索引.xlsx
+++ b/02 封装制作及命名规则/02_封装库索引.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="索引" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>A64</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -188,10 +188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TSOP32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SRAM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,10 +211,6 @@
     <t>KLM8G1WEPD-B031</t>
   </si>
   <si>
-    <t>EMMC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FBGA153-0r5mm-14_14</t>
   </si>
   <si>
@@ -243,13 +235,33 @@
   </si>
   <si>
     <t>PMU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT29F16G08CBACAWP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nand Flash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eMMC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSOP48-TYPE1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSOP32-TYPE1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -319,7 +331,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -607,19 +619,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="40.88671875" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.875" customWidth="1"/>
+    <col min="4" max="4" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -631,7 +643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -645,7 +657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -659,21 +671,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
       <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -685,9 +699,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
@@ -699,65 +713,65 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
@@ -769,9 +783,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>39</v>
@@ -783,9 +797,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>36</v>
@@ -797,16 +811,27 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>21</v>
       </c>
@@ -820,7 +845,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>22</v>
       </c>
@@ -834,7 +859,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>23</v>
       </c>
@@ -848,7 +873,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>24</v>
       </c>
@@ -862,21 +887,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>25</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>25</v>
       </c>
@@ -890,7 +915,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>26</v>
       </c>
@@ -904,26 +929,26 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>27</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D25" s="2"/>
     </row>
